--- a/LinearRegressionLabs.xlsx
+++ b/LinearRegressionLabs.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23801"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\david\Dropbox\TDWI\2021_April\LinearRegression\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\caitlin\Documents\Caitlin Johnson\Personal\SpeakingOps\TDWI\TDWI - Conferences\TDWI - 2021 Orlando\Linear Regression\PredictiveAnalyticsWithExcelStudentFiles\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E438CA4E-FE85-4F02-839E-C0FD165C41C0}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{45935D6E-09F6-41E3-AF63-EEC7848A912A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="757" activeTab="5" xr2:uid="{E514F058-150F-457B-A23E-370AF79AF7DB}"/>
   </bookViews>
@@ -20,6 +20,38 @@
     <sheet name="Lab 4 Data" sheetId="10" r:id="rId5"/>
     <sheet name="Lab 5 Data" sheetId="14" r:id="rId6"/>
   </sheets>
+  <definedNames>
+    <definedName name="solver_eng" localSheetId="1" hidden="1">1</definedName>
+    <definedName name="solver_eng" localSheetId="2" hidden="1">1</definedName>
+    <definedName name="solver_eng" localSheetId="3" hidden="1">1</definedName>
+    <definedName name="solver_eng" localSheetId="4" hidden="1">1</definedName>
+    <definedName name="solver_eng" localSheetId="5" hidden="1">1</definedName>
+    <definedName name="solver_neg" localSheetId="1" hidden="1">1</definedName>
+    <definedName name="solver_neg" localSheetId="2" hidden="1">1</definedName>
+    <definedName name="solver_neg" localSheetId="3" hidden="1">1</definedName>
+    <definedName name="solver_neg" localSheetId="4" hidden="1">1</definedName>
+    <definedName name="solver_neg" localSheetId="5" hidden="1">1</definedName>
+    <definedName name="solver_num" localSheetId="1" hidden="1">0</definedName>
+    <definedName name="solver_num" localSheetId="2" hidden="1">0</definedName>
+    <definedName name="solver_num" localSheetId="3" hidden="1">0</definedName>
+    <definedName name="solver_num" localSheetId="4" hidden="1">0</definedName>
+    <definedName name="solver_num" localSheetId="5" hidden="1">0</definedName>
+    <definedName name="solver_typ" localSheetId="1" hidden="1">1</definedName>
+    <definedName name="solver_typ" localSheetId="2" hidden="1">1</definedName>
+    <definedName name="solver_typ" localSheetId="3" hidden="1">1</definedName>
+    <definedName name="solver_typ" localSheetId="4" hidden="1">1</definedName>
+    <definedName name="solver_typ" localSheetId="5" hidden="1">1</definedName>
+    <definedName name="solver_val" localSheetId="1" hidden="1">0</definedName>
+    <definedName name="solver_val" localSheetId="2" hidden="1">0</definedName>
+    <definedName name="solver_val" localSheetId="3" hidden="1">0</definedName>
+    <definedName name="solver_val" localSheetId="4" hidden="1">0</definedName>
+    <definedName name="solver_val" localSheetId="5" hidden="1">0</definedName>
+    <definedName name="solver_ver" localSheetId="1" hidden="1">3</definedName>
+    <definedName name="solver_ver" localSheetId="2" hidden="1">3</definedName>
+    <definedName name="solver_ver" localSheetId="3" hidden="1">3</definedName>
+    <definedName name="solver_ver" localSheetId="4" hidden="1">3</definedName>
+    <definedName name="solver_ver" localSheetId="5" hidden="1">3</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -35,7 +67,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="210" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="207" uniqueCount="63">
   <si>
     <t>MPG</t>
   </si>
@@ -119,15 +151,6 @@
   </si>
   <si>
     <t>The size of the vehicle's engine in cubic inches.</t>
-  </si>
-  <si>
-    <t>Mean MPG</t>
-  </si>
-  <si>
-    <t>Errors</t>
-  </si>
-  <si>
-    <t>Squared Errors</t>
   </si>
   <si>
     <t>J</t>
@@ -834,10 +857,10 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3D257849-13BF-4D3E-89A5-287A07DAFDBC}">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A1:D35"/>
+  <dimension ref="A1:A33"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G1" sqref="G1:T1048576"/>
+      <selection activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -847,572 +870,169 @@
     <col min="4" max="4" width="12.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>21</v>
       </c>
-      <c r="B2">
-        <f>AVERAGE($A$2:$A$33)</f>
-        <v>20.090624999999996</v>
-      </c>
-      <c r="C2">
-        <f>A2-B2</f>
-        <v>0.90937500000000426</v>
-      </c>
-      <c r="D2">
-        <f>C2*C2</f>
-        <v>0.82696289062500772</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>21</v>
       </c>
-      <c r="B3">
-        <f t="shared" ref="B3:B33" si="0">AVERAGE($A$2:$A$33)</f>
-        <v>20.090624999999996</v>
-      </c>
-      <c r="C3">
-        <f t="shared" ref="C3:C33" si="1">A3-B3</f>
-        <v>0.90937500000000426</v>
-      </c>
-      <c r="D3">
-        <f t="shared" ref="D3:D33" si="2">C3*C3</f>
-        <v>0.82696289062500772</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>22.8</v>
       </c>
-      <c r="B4">
-        <f t="shared" si="0"/>
-        <v>20.090624999999996</v>
-      </c>
-      <c r="C4">
-        <f t="shared" si="1"/>
-        <v>2.709375000000005</v>
-      </c>
-      <c r="D4">
-        <f t="shared" si="2"/>
-        <v>7.340712890625027</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>21.4</v>
       </c>
-      <c r="B5">
-        <f t="shared" si="0"/>
-        <v>20.090624999999996</v>
-      </c>
-      <c r="C5">
-        <f t="shared" si="1"/>
-        <v>1.3093750000000028</v>
-      </c>
-      <c r="D5">
-        <f t="shared" si="2"/>
-        <v>1.7144628906250075</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>18.7</v>
       </c>
-      <c r="B6">
-        <f t="shared" si="0"/>
-        <v>20.090624999999996</v>
-      </c>
-      <c r="C6">
-        <f t="shared" si="1"/>
-        <v>-1.3906249999999964</v>
-      </c>
-      <c r="D6">
-        <f t="shared" si="2"/>
-        <v>1.9338378906249902</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>18.100000000000001</v>
       </c>
-      <c r="B7">
-        <f t="shared" si="0"/>
-        <v>20.090624999999996</v>
-      </c>
-      <c r="C7">
-        <f t="shared" si="1"/>
-        <v>-1.9906249999999943</v>
-      </c>
-      <c r="D7">
-        <f t="shared" si="2"/>
-        <v>3.9625878906249774</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>14.3</v>
       </c>
-      <c r="B8">
-        <f t="shared" si="0"/>
-        <v>20.090624999999996</v>
-      </c>
-      <c r="C8">
-        <f t="shared" si="1"/>
-        <v>-5.790624999999995</v>
-      </c>
-      <c r="D8">
-        <f t="shared" si="2"/>
-        <v>33.53133789062494</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="9" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>24.4</v>
       </c>
-      <c r="B9">
-        <f t="shared" si="0"/>
-        <v>20.090624999999996</v>
-      </c>
-      <c r="C9">
-        <f t="shared" si="1"/>
-        <v>4.3093750000000028</v>
-      </c>
-      <c r="D9">
-        <f t="shared" si="2"/>
-        <v>18.570712890625025</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="10" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>22.8</v>
       </c>
-      <c r="B10">
-        <f t="shared" si="0"/>
-        <v>20.090624999999996</v>
-      </c>
-      <c r="C10">
-        <f t="shared" si="1"/>
-        <v>2.709375000000005</v>
-      </c>
-      <c r="D10">
-        <f t="shared" si="2"/>
-        <v>7.340712890625027</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="11" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>19.2</v>
       </c>
-      <c r="B11">
-        <f t="shared" si="0"/>
-        <v>20.090624999999996</v>
-      </c>
-      <c r="C11">
-        <f t="shared" si="1"/>
-        <v>-0.89062499999999645</v>
-      </c>
-      <c r="D11">
-        <f t="shared" si="2"/>
-        <v>0.79321289062499367</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="12" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>17.8</v>
       </c>
-      <c r="B12">
-        <f t="shared" si="0"/>
-        <v>20.090624999999996</v>
-      </c>
-      <c r="C12">
-        <f t="shared" si="1"/>
-        <v>-2.290624999999995</v>
-      </c>
-      <c r="D12">
-        <f t="shared" si="2"/>
-        <v>5.2469628906249772</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="13" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>16.399999999999999</v>
       </c>
-      <c r="B13">
-        <f t="shared" si="0"/>
-        <v>20.090624999999996</v>
-      </c>
-      <c r="C13">
-        <f t="shared" si="1"/>
-        <v>-3.6906249999999972</v>
-      </c>
-      <c r="D13">
-        <f t="shared" si="2"/>
-        <v>13.620712890624979</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="14" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>17.3</v>
       </c>
-      <c r="B14">
-        <f t="shared" si="0"/>
-        <v>20.090624999999996</v>
-      </c>
-      <c r="C14">
-        <f t="shared" si="1"/>
-        <v>-2.790624999999995</v>
-      </c>
-      <c r="D14">
-        <f t="shared" si="2"/>
-        <v>7.7875878906249723</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="15" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>15.2</v>
       </c>
-      <c r="B15">
-        <f t="shared" si="0"/>
-        <v>20.090624999999996</v>
-      </c>
-      <c r="C15">
-        <f t="shared" si="1"/>
-        <v>-4.8906249999999964</v>
-      </c>
-      <c r="D15">
-        <f t="shared" si="2"/>
-        <v>23.918212890624964</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="16" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>10.4</v>
       </c>
-      <c r="B16">
-        <f t="shared" si="0"/>
-        <v>20.090624999999996</v>
-      </c>
-      <c r="C16">
-        <f t="shared" si="1"/>
-        <v>-9.6906249999999954</v>
-      </c>
-      <c r="D16">
-        <f t="shared" si="2"/>
-        <v>93.90821289062491</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>10.4</v>
       </c>
-      <c r="B17">
-        <f t="shared" si="0"/>
-        <v>20.090624999999996</v>
-      </c>
-      <c r="C17">
-        <f t="shared" si="1"/>
-        <v>-9.6906249999999954</v>
-      </c>
-      <c r="D17">
-        <f t="shared" si="2"/>
-        <v>93.90821289062491</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>14.7</v>
       </c>
-      <c r="B18">
-        <f t="shared" si="0"/>
-        <v>20.090624999999996</v>
-      </c>
-      <c r="C18">
-        <f t="shared" si="1"/>
-        <v>-5.3906249999999964</v>
-      </c>
-      <c r="D18">
-        <f t="shared" si="2"/>
-        <v>29.058837890624961</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>32.4</v>
       </c>
-      <c r="B19">
-        <f t="shared" si="0"/>
-        <v>20.090624999999996</v>
-      </c>
-      <c r="C19">
-        <f t="shared" si="1"/>
-        <v>12.309375000000003</v>
-      </c>
-      <c r="D19">
-        <f t="shared" si="2"/>
-        <v>151.52071289062508</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>30.4</v>
       </c>
-      <c r="B20">
-        <f t="shared" si="0"/>
-        <v>20.090624999999996</v>
-      </c>
-      <c r="C20">
-        <f t="shared" si="1"/>
-        <v>10.309375000000003</v>
-      </c>
-      <c r="D20">
-        <f t="shared" si="2"/>
-        <v>106.28321289062505</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>33.9</v>
       </c>
-      <c r="B21">
-        <f t="shared" si="0"/>
-        <v>20.090624999999996</v>
-      </c>
-      <c r="C21">
-        <f t="shared" si="1"/>
-        <v>13.809375000000003</v>
-      </c>
-      <c r="D21">
-        <f t="shared" si="2"/>
-        <v>190.69883789062507</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>21.5</v>
       </c>
-      <c r="B22">
-        <f t="shared" si="0"/>
-        <v>20.090624999999996</v>
-      </c>
-      <c r="C22">
-        <f t="shared" si="1"/>
-        <v>1.4093750000000043</v>
-      </c>
-      <c r="D22">
-        <f t="shared" si="2"/>
-        <v>1.986337890625012</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A23">
         <v>15.5</v>
       </c>
-      <c r="B23">
-        <f t="shared" si="0"/>
-        <v>20.090624999999996</v>
-      </c>
-      <c r="C23">
-        <f t="shared" si="1"/>
-        <v>-4.5906249999999957</v>
-      </c>
-      <c r="D23">
-        <f t="shared" si="2"/>
-        <v>21.073837890624961</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A24">
         <v>15.2</v>
       </c>
-      <c r="B24">
-        <f t="shared" si="0"/>
-        <v>20.090624999999996</v>
-      </c>
-      <c r="C24">
-        <f t="shared" si="1"/>
-        <v>-4.8906249999999964</v>
-      </c>
-      <c r="D24">
-        <f t="shared" si="2"/>
-        <v>23.918212890624964</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="25" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A25">
         <v>13.3</v>
       </c>
-      <c r="B25">
-        <f t="shared" si="0"/>
-        <v>20.090624999999996</v>
-      </c>
-      <c r="C25">
-        <f t="shared" si="1"/>
-        <v>-6.790624999999995</v>
-      </c>
-      <c r="D25">
-        <f t="shared" si="2"/>
-        <v>46.11258789062493</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="26" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A26">
         <v>19.2</v>
       </c>
-      <c r="B26">
-        <f t="shared" si="0"/>
-        <v>20.090624999999996</v>
-      </c>
-      <c r="C26">
-        <f t="shared" si="1"/>
-        <v>-0.89062499999999645</v>
-      </c>
-      <c r="D26">
-        <f t="shared" si="2"/>
-        <v>0.79321289062499367</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="27" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A27">
         <v>27.3</v>
       </c>
-      <c r="B27">
-        <f t="shared" si="0"/>
-        <v>20.090624999999996</v>
-      </c>
-      <c r="C27">
-        <f t="shared" si="1"/>
-        <v>7.209375000000005</v>
-      </c>
-      <c r="D27">
-        <f t="shared" si="2"/>
-        <v>51.975087890625069</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="28" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A28">
         <v>26</v>
       </c>
-      <c r="B28">
-        <f t="shared" si="0"/>
-        <v>20.090624999999996</v>
-      </c>
-      <c r="C28">
-        <f t="shared" si="1"/>
-        <v>5.9093750000000043</v>
-      </c>
-      <c r="D28">
-        <f t="shared" si="2"/>
-        <v>34.920712890625047</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="29" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A29">
         <v>30.4</v>
       </c>
-      <c r="B29">
-        <f t="shared" si="0"/>
-        <v>20.090624999999996</v>
-      </c>
-      <c r="C29">
-        <f t="shared" si="1"/>
-        <v>10.309375000000003</v>
-      </c>
-      <c r="D29">
-        <f t="shared" si="2"/>
-        <v>106.28321289062505</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="30" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A30">
         <v>15.8</v>
       </c>
-      <c r="B30">
-        <f t="shared" si="0"/>
-        <v>20.090624999999996</v>
-      </c>
-      <c r="C30">
-        <f t="shared" si="1"/>
-        <v>-4.290624999999995</v>
-      </c>
-      <c r="D30">
-        <f t="shared" si="2"/>
-        <v>18.409462890624958</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="31" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A31">
         <v>19.7</v>
       </c>
-      <c r="B31">
-        <f t="shared" si="0"/>
-        <v>20.090624999999996</v>
-      </c>
-      <c r="C31">
-        <f t="shared" si="1"/>
-        <v>-0.39062499999999645</v>
-      </c>
-      <c r="D31">
-        <f t="shared" si="2"/>
-        <v>0.15258789062499722</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="32" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A32">
         <v>15</v>
       </c>
-      <c r="B32">
-        <f t="shared" si="0"/>
-        <v>20.090624999999996</v>
-      </c>
-      <c r="C32">
-        <f t="shared" si="1"/>
-        <v>-5.0906249999999957</v>
-      </c>
-      <c r="D32">
-        <f t="shared" si="2"/>
-        <v>25.914462890624957</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="33" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A33">
         <v>21.4</v>
-      </c>
-      <c r="B33">
-        <f t="shared" si="0"/>
-        <v>20.090624999999996</v>
-      </c>
-      <c r="C33">
-        <f t="shared" si="1"/>
-        <v>1.3093750000000028</v>
-      </c>
-      <c r="D33">
-        <f t="shared" si="2"/>
-        <v>1.7144628906250075</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="C35">
-        <f>SUM(C2:C33)</f>
-        <v>1.2789769243681803E-13</v>
-      </c>
-      <c r="D35">
-        <f>SUM(D2:D33)</f>
-        <v>1126.0471875000001</v>
       </c>
     </row>
   </sheetData>
@@ -1426,15 +1046,16 @@
   <dimension ref="A1:E33"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G1" sqref="G1:N1048576"/>
+      <selection activeCell="H1" sqref="H1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.88671875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.5546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="7.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="6.77734375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.3">
@@ -2010,7 +1631,7 @@
   <dimension ref="A1:E33"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F1" sqref="F1:P1048576"/>
+      <selection activeCell="H1" sqref="H1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2018,7 +1639,7 @@
     <col min="1" max="1" width="5" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="12" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="11" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="6.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="6.77734375" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="8.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -2595,7 +2216,7 @@
   <dimension ref="A1:I33"/>
   <sheetViews>
     <sheetView topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="K1" sqref="K1:S1048576"/>
+      <selection activeCell="L1" sqref="L1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2663,10 +2284,10 @@
         <v>1</v>
       </c>
       <c r="H2" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="I2" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.3">
@@ -2692,10 +2313,10 @@
         <v>1</v>
       </c>
       <c r="H3" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="I3" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.3">
@@ -2721,10 +2342,10 @@
         <v>1</v>
       </c>
       <c r="H4" t="s">
+        <v>28</v>
+      </c>
+      <c r="I4" t="s">
         <v>31</v>
-      </c>
-      <c r="I4" t="s">
-        <v>34</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.3">
@@ -2750,10 +2371,10 @@
         <v>0</v>
       </c>
       <c r="H5" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="I5" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.3">
@@ -2779,10 +2400,10 @@
         <v>0</v>
       </c>
       <c r="H6" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="I6" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.3">
@@ -2808,10 +2429,10 @@
         <v>0</v>
       </c>
       <c r="H7" t="s">
+        <v>32</v>
+      </c>
+      <c r="I7" t="s">
         <v>35</v>
-      </c>
-      <c r="I7" t="s">
-        <v>38</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.3">
@@ -2837,10 +2458,10 @@
         <v>0</v>
       </c>
       <c r="H8" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="I8" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.3">
@@ -2866,10 +2487,10 @@
         <v>0</v>
       </c>
       <c r="H9" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="I9" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.3">
@@ -2895,10 +2516,10 @@
         <v>0</v>
       </c>
       <c r="H10" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="I10" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.3">
@@ -2924,10 +2545,10 @@
         <v>0</v>
       </c>
       <c r="H11" t="s">
+        <v>37</v>
+      </c>
+      <c r="I11" t="s">
         <v>40</v>
-      </c>
-      <c r="I11" t="s">
-        <v>43</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.3">
@@ -2953,10 +2574,10 @@
         <v>0</v>
       </c>
       <c r="H12" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="I12" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.3">
@@ -2982,10 +2603,10 @@
         <v>0</v>
       </c>
       <c r="H13" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="I13" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.3">
@@ -3011,10 +2632,10 @@
         <v>0</v>
       </c>
       <c r="H14" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="I14" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.3">
@@ -3040,10 +2661,10 @@
         <v>0</v>
       </c>
       <c r="H15" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="I15" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.3">
@@ -3069,10 +2690,10 @@
         <v>0</v>
       </c>
       <c r="H16" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="I16" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.3">
@@ -3098,10 +2719,10 @@
         <v>0</v>
       </c>
       <c r="H17" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="I17" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.3">
@@ -3127,10 +2748,10 @@
         <v>0</v>
       </c>
       <c r="H18" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="I18" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.3">
@@ -3156,10 +2777,10 @@
         <v>1</v>
       </c>
       <c r="H19" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="I19" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.3">
@@ -3185,10 +2806,10 @@
         <v>1</v>
       </c>
       <c r="H20" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="I20" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.3">
@@ -3214,10 +2835,10 @@
         <v>1</v>
       </c>
       <c r="H21" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="I21" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.3">
@@ -3243,10 +2864,10 @@
         <v>0</v>
       </c>
       <c r="H22" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="I22" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.3">
@@ -3272,10 +2893,10 @@
         <v>0</v>
       </c>
       <c r="H23" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="I23" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.3">
@@ -3301,10 +2922,10 @@
         <v>0</v>
       </c>
       <c r="H24" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="I24" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.3">
@@ -3330,10 +2951,10 @@
         <v>0</v>
       </c>
       <c r="H25" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="I25" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.3">
@@ -3359,10 +2980,10 @@
         <v>0</v>
       </c>
       <c r="H26" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="I26" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.3">
@@ -3388,10 +3009,10 @@
         <v>1</v>
       </c>
       <c r="H27" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="I27" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.3">
@@ -3417,10 +3038,10 @@
         <v>1</v>
       </c>
       <c r="H28" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="I28" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.3">
@@ -3446,10 +3067,10 @@
         <v>1</v>
       </c>
       <c r="H29" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="I29" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.3">
@@ -3475,10 +3096,10 @@
         <v>1</v>
       </c>
       <c r="H30" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="I30" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.3">
@@ -3504,10 +3125,10 @@
         <v>1</v>
       </c>
       <c r="H31" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="I31" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.3">
@@ -3533,10 +3154,10 @@
         <v>1</v>
       </c>
       <c r="H32" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="I32" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.3">
@@ -3562,10 +3183,10 @@
         <v>1</v>
       </c>
       <c r="H33" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="I33" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
     </row>
   </sheetData>
@@ -3582,7 +3203,7 @@
   <dimension ref="A1:P33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N15" sqref="N15"/>
+      <selection activeCell="J1" sqref="J1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3590,12 +3211,12 @@
     <col min="1" max="1" width="5" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="12" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="11" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="6.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="6.77734375" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="8.33203125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="13.109375" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="18.33203125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="5.6640625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="16.6640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="5.77734375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="16.77734375" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="12" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="12.6640625" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="12.5546875" bestFit="1" customWidth="1"/>
@@ -3654,10 +3275,10 @@
         <v>1</v>
       </c>
       <c r="H2" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="I2" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="K2" s="3"/>
       <c r="L2" s="3" t="s">
@@ -3699,10 +3320,10 @@
         <v>1</v>
       </c>
       <c r="H3" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="I3" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="K3" t="s">
         <v>0</v>
@@ -3734,10 +3355,10 @@
         <v>1</v>
       </c>
       <c r="H4" t="s">
+        <v>28</v>
+      </c>
+      <c r="I4" t="s">
         <v>31</v>
-      </c>
-      <c r="I4" t="s">
-        <v>34</v>
       </c>
       <c r="K4" t="s">
         <v>8</v>
@@ -3772,10 +3393,10 @@
         <v>0</v>
       </c>
       <c r="H5" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="I5" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="K5" t="s">
         <v>9</v>
@@ -3813,10 +3434,10 @@
         <v>0</v>
       </c>
       <c r="H6" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="I6" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="K6" t="s">
         <v>10</v>
@@ -3857,10 +3478,10 @@
         <v>0</v>
       </c>
       <c r="H7" t="s">
+        <v>32</v>
+      </c>
+      <c r="I7" t="s">
         <v>35</v>
-      </c>
-      <c r="I7" t="s">
-        <v>38</v>
       </c>
       <c r="K7" s="4" t="s">
         <v>11</v>
@@ -3904,10 +3525,10 @@
         <v>0</v>
       </c>
       <c r="H8" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="I8" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.3">
@@ -3933,10 +3554,10 @@
         <v>0</v>
       </c>
       <c r="H9" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="I9" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
     </row>
     <row r="10" spans="1:16" x14ac:dyDescent="0.3">
@@ -3962,10 +3583,10 @@
         <v>0</v>
       </c>
       <c r="H10" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="I10" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
     </row>
     <row r="11" spans="1:16" x14ac:dyDescent="0.3">
@@ -3991,10 +3612,10 @@
         <v>0</v>
       </c>
       <c r="H11" t="s">
+        <v>37</v>
+      </c>
+      <c r="I11" t="s">
         <v>40</v>
-      </c>
-      <c r="I11" t="s">
-        <v>43</v>
       </c>
     </row>
     <row r="12" spans="1:16" x14ac:dyDescent="0.3">
@@ -4020,10 +3641,10 @@
         <v>0</v>
       </c>
       <c r="H12" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="I12" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
     </row>
     <row r="13" spans="1:16" x14ac:dyDescent="0.3">
@@ -4049,10 +3670,10 @@
         <v>0</v>
       </c>
       <c r="H13" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="I13" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
     </row>
     <row r="14" spans="1:16" x14ac:dyDescent="0.3">
@@ -4078,10 +3699,10 @@
         <v>0</v>
       </c>
       <c r="H14" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="I14" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
     </row>
     <row r="15" spans="1:16" x14ac:dyDescent="0.3">
@@ -4107,10 +3728,10 @@
         <v>0</v>
       </c>
       <c r="H15" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="I15" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
     </row>
     <row r="16" spans="1:16" x14ac:dyDescent="0.3">
@@ -4136,10 +3757,10 @@
         <v>0</v>
       </c>
       <c r="H16" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="I16" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.3">
@@ -4165,10 +3786,10 @@
         <v>0</v>
       </c>
       <c r="H17" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="I17" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.3">
@@ -4194,10 +3815,10 @@
         <v>0</v>
       </c>
       <c r="H18" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="I18" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.3">
@@ -4223,10 +3844,10 @@
         <v>1</v>
       </c>
       <c r="H19" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="I19" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.3">
@@ -4252,10 +3873,10 @@
         <v>1</v>
       </c>
       <c r="H20" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="I20" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.3">
@@ -4281,10 +3902,10 @@
         <v>1</v>
       </c>
       <c r="H21" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="I21" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.3">
@@ -4310,10 +3931,10 @@
         <v>0</v>
       </c>
       <c r="H22" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="I22" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.3">
@@ -4339,10 +3960,10 @@
         <v>0</v>
       </c>
       <c r="H23" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="I23" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.3">
@@ -4368,10 +3989,10 @@
         <v>0</v>
       </c>
       <c r="H24" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="I24" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.3">
@@ -4397,10 +4018,10 @@
         <v>0</v>
       </c>
       <c r="H25" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="I25" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.3">
@@ -4426,10 +4047,10 @@
         <v>0</v>
       </c>
       <c r="H26" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="I26" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.3">
@@ -4455,10 +4076,10 @@
         <v>1</v>
       </c>
       <c r="H27" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="I27" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.3">
@@ -4484,10 +4105,10 @@
         <v>1</v>
       </c>
       <c r="H28" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="I28" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.3">
@@ -4513,10 +4134,10 @@
         <v>1</v>
       </c>
       <c r="H29" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="I29" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.3">
@@ -4542,10 +4163,10 @@
         <v>1</v>
       </c>
       <c r="H30" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="I30" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.3">
@@ -4571,10 +4192,10 @@
         <v>1</v>
       </c>
       <c r="H31" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="I31" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.3">
@@ -4600,10 +4221,10 @@
         <v>1</v>
       </c>
       <c r="H32" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="I32" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.3">
@@ -4629,10 +4250,10 @@
         <v>1</v>
       </c>
       <c r="H33" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="I33" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
     </row>
   </sheetData>
